--- a/vce/penn_station_platforms_20221109.xlsx
+++ b/vce/penn_station_platforms_20221109.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Transit-R-Maps\vce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\transit-modeling\vce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419DCBF0-8CA3-4EEA-BDC7-5FE95BC17756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C30D16-0E27-4594-8DDA-466B83245C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="1980" windowWidth="20985" windowHeight="9525" xr2:uid="{A3B3AB15-1C45-5C4F-802C-007851D814A4}"/>
+    <workbookView xWindow="6675" yWindow="3015" windowWidth="20985" windowHeight="9525" xr2:uid="{A3B3AB15-1C45-5C4F-802C-007851D814A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>NYP sanitized data</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>vce widths (in)</t>
+  </si>
+  <si>
+    <t>total proposed (in)</t>
+  </si>
+  <si>
+    <t>used in model (in)</t>
   </si>
 </sst>
 </file>
@@ -487,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4183AC29-8E9D-C649-AE42-B7CF346BD6A3}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -551,37 +557,37 @@
         <v>26</v>
       </c>
       <c r="B3" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J3" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K3" s="1">
         <v>51</v>
       </c>
       <c r="L3" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -595,7 +601,7 @@
         <v>700</v>
       </c>
       <c r="D4" s="1">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E4" s="1">
         <v>1200</v>
@@ -610,7 +616,7 @@
         <v>1400</v>
       </c>
       <c r="I4" s="1">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="J4" s="1">
         <v>1100</v>
@@ -1080,6 +1086,9 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
       <c r="B21">
         <f>SUM(B6:B20)</f>
         <v>530</v>
@@ -1125,6 +1134,26 @@
         <v>636</v>
       </c>
     </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1">
+        <v>450</v>
+      </c>
+      <c r="C22">
+        <v>450</v>
+      </c>
+      <c r="D22">
+        <v>500</v>
+      </c>
+      <c r="E22">
+        <v>550</v>
+      </c>
+      <c r="F22">
+        <v>550</v>
+      </c>
+    </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>8</v>
@@ -1133,7 +1162,7 @@
         <v>8</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>12</v>
